--- a/data/trans_bre/P15_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_3-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>60,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>78,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-19,49%</t>
+          <t>-30,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 6,5</t>
+          <t>-1,56; 10,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 5,76</t>
+          <t>-0,88; 10,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 1,37</t>
+          <t>-16,42; 1,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 10,15</t>
+          <t>-7,5; 13,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 91,74</t>
+          <t>-17,04; 220,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 89,28</t>
+          <t>-12,89; 274,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-42,46; 7,92</t>
+          <t>-54,51; 7,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,66; 41,11</t>
+          <t>-21,4; 54,3</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,42%</t>
+          <t>28,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>64,61%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>-4,0%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 7,9</t>
+          <t>-4,42; 8,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 6,71</t>
+          <t>-4,53; 5,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 10,49</t>
+          <t>-6,24; 12,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 12,47</t>
+          <t>-12,61; 9,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 204,75</t>
+          <t>-46,04; 181,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 266,77</t>
+          <t>-58,71; 261,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 83,25</t>
+          <t>-27,82; 106,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 51,4</t>
+          <t>-33,67; 38,48</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,54%</t>
+          <t>-24,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>-41,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-10,08%</t>
+          <t>-10,95%</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 11,14</t>
+          <t>-16,31; 11,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 7,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 15,02</t>
+          <t>-31,26; 10,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 16,16</t>
+          <t>-31,29; 24,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,62; 247,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-52,89; 112,38</t>
+          <t>-83,15; 102,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,99; 71,87</t>
+          <t>-59,51; 119,75</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>38,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>-15,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,46</t>
+          <t>-1,19; 6,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,99</t>
+          <t>-0,84; 6,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 4,07</t>
+          <t>-8,86; 2,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 7,81</t>
+          <t>-6,71; 8,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 84,04</t>
+          <t>-13,51; 126,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 102,74</t>
+          <t>-15,01; 184,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 23,45</t>
+          <t>-35,32; 14,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 30,46</t>
+          <t>-19,36; 31,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_3-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,59</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,32</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>60,9%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>78,14%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-30,35%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>8,34%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.587349738586539</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.844098443347721</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.002415497288545</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.355301898450202</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.6089770148160245</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.9631426282654837</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.2971745532100273</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.07804219171574529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 10,45</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 10,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-16,42; 1,27</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,5; 13,3</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-17,04; 220,65</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-12,89; 274,76</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-54,51; 7,82</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-21,4; 54,3</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.559531394060455</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3460160406678224</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.77188140768712</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.944923940480318</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1704292521910147</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.08773225112693896</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.542138153015942</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2210716833294972</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.44988212040781</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.15239056665532</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.57670917795021</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.56993712177137</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.206497742175149</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.183990410054953</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.08204838459982283</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.5180031104651003</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>28,92%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>18,43%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>18,12%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-4,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 8,03</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,53; 5,89</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; 12,28</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,61; 9,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-46,04; 181,9</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-58,71; 261,89</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-27,82; 106,01</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-33,67; 38,48</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.019919160109067</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.097162923193728</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.648071274875821</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.89305665605296</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2892101049635159</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2471842437786599</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.151707804064539</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.06114182981870037</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,85</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,98</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-24,4%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-41,42%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-10,95%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.419239261522622</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.098064969008599</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.71506087828794</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-12.9122101017791</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4604381358228881</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5975042658039148</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3174154996046566</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3524262443639852</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,31; 11,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-31,26; 10,74</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-31,29; 24,57</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-83,15; 102,74</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-59,51; 119,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.034125951966855</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.063823592052624</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.47333964902923</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.796823237042341</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.819001079284976</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.67369020205175</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.9004910666094031</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3522008680728221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,26</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>38,25%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>57,65%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-15,32%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.258300050854155</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-12.06295555272498</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-6.468295457278406</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.2439570490851717</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.4493567055160296</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1691081366385616</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 6,9</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 6,75</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,86; 2,69</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 8,33</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-13,51; 126,46</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-15,01; 184,86</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-35,32; 14,49</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-19,36; 31,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.30656901369838</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>-34.78895369045992</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-34.14347315559201</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.83640058945332</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6184083721716745</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.72537898846186</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>8.783702500841105</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>21.56268122091357</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.8930763869354239</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.018575952367061</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.870917890294777</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.400637731558678</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-3.488028765083895</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.3402838758481075</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3825251104447248</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.7137414676451975</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1638430416069593</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.0108436108940212</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.194554547371534</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4586366870018834</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.266527347534552</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-7.477883662969564</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1350544054675931</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1160291562428196</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3718776875085765</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2104137865567536</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.895898564477361</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.465265092312499</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.262283075799759</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.933057053908434</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.264633502139042</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.119840460697085</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1359952842718197</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3068631343852985</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1011,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
